--- a/assets/modelo.xlsx
+++ b/assets/modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projetos\manutencao\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB524430-E724-4B33-8344-CB3AB3334F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A431B5C-EAA7-47B1-B1DB-F38D8D8C421A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40D4E09C-A758-4289-BDAF-D1A0886132E1}"/>
   </bookViews>
@@ -267,9 +267,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,6 +286,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,7 +617,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,25 +628,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -648,74 +654,74 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
